--- a/Research Presented in the Paper/Adult Income Simple RF -with changing SEX n EDU features only/Performance_metrics/model_perf_metrics_mean_of_iterations_Results .xlsx
+++ b/Research Presented in the Paper/Adult Income Simple RF -with changing SEX n EDU features only/Performance_metrics/model_perf_metrics_mean_of_iterations_Results .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dideu\OneDrive\Documents\DDB\thesis\Thesis_Project\Adult Income Simple RF -with changing SEX n EDU\Performance_metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dideu\OneDrive\Documents\DDB\thesis\Thesis_Project\Research Presented in the Paper\Adult Income Simple RF -with changing SEX n EDU features only\Performance_metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83EFD2-4D16-40FB-B562-A10852D22367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523749F4-955E-4D3A-BC4C-EFDDE7458E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>RF_simp_2_sample:9495_cf:2_mean_of_3_iterations</t>
+  </si>
+  <si>
+    <t>RF_simp_1_sample:10000_cf:1_mean_of_3_iterations</t>
+  </si>
+  <si>
+    <t>RF_simp_2_sample:10000_cf:1_mean_of_3_iterations</t>
+  </si>
+  <si>
+    <t>RF_simp_1_sample:10000_cf:2_mean_of_3_iterations</t>
+  </si>
+  <si>
+    <t>RF_simp_2_sample:10000_cf:2_mean_of_3_iterations</t>
   </si>
 </sst>
 </file>
@@ -99,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
@@ -981,6 +993,134 @@
         <v>1.651992E-2</v>
       </c>
     </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>38684</v>
+      </c>
+      <c r="G17">
+        <v>0.18538811594163879</v>
+      </c>
+      <c r="H17">
+        <v>3.2538650000000002E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.55119413498892433</v>
+      </c>
+      <c r="J17">
+        <v>9.9946500000000008E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>38684</v>
+      </c>
+      <c r="G18">
+        <v>0.2134541336478655</v>
+      </c>
+      <c r="H18">
+        <v>6.8965579999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.56019803408088142</v>
+      </c>
+      <c r="J18">
+        <v>2.18117E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>45605</v>
+      </c>
+      <c r="G19">
+        <v>0.1592501395316569</v>
+      </c>
+      <c r="H19">
+        <v>1.5719E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.54324713636636235</v>
+      </c>
+      <c r="J19">
+        <v>4.65665E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>45605</v>
+      </c>
+      <c r="G20">
+        <v>9.398651221846499E-2</v>
+      </c>
+      <c r="H20">
+        <v>6.6469710000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.52525302688907483</v>
+      </c>
+      <c r="J20">
+        <v>1.786008E-2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J16">
     <sortCondition ref="B1:B16"/>
